--- a/biology/Mycologie/Bolet_royal/Bolet_royal.xlsx
+++ b/biology/Mycologie/Bolet_royal/Bolet_royal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Butyriboletus regius
-Butyriboletus regius, le Bolet royal[1], anciennement Boletus regius, est une espèce rare de champignons basidiomycètes du genre Butyriboletus dans la famille des Boletaceae. Il est caractérisé par son chapeau rosâtre et une absence ou quasi absence de bleuissement.
+Butyriboletus regius, le Bolet royal, anciennement Boletus regius, est une espèce rare de champignons basidiomycètes du genre Butyriboletus dans la famille des Boletaceae. Il est caractérisé par son chapeau rosâtre et une absence ou quasi absence de bleuissement.
 </t>
         </is>
       </c>
@@ -512,89 +524,234 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Butyriboletus regius (Krombh.) D. Arora &amp; J.L. Frank, 2014[2]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus regius Krombh., 1832[2].
-Synonymes
-Butyriboletus regius a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Butyriboletus regius (Krombh.) D. Arora &amp; J.L. Frank, 2014. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus regius Krombh., 1832.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_royal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_royal</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Butyriboletus regius a pour synonymes :
 Boletus regius Krombh., 1832
 Boletus subtomentosus subsp.* cerasinus C. Martín, 1903
 Dictyopus appendiculatus var. regius (Krombh.) Quél., 1886
 Dictyopus regius (Krombholz) Quélet., 1888
 Suillus regius (Krombh.) Kuntze, 1898
-Tubiporus regius (Krombh.) P. Karst., 1882
-Phylogénie
-L'espèce a été décrite pour la première fois par le mycologue allemand Krombholz en 1832[3] sous le binôme Boletus regius. Les progrès de la systématique font éclater l'ancien genre Boletus ss. lato et migrer toute la section Appendiculati[4] vers le nouveau genre Butyriboletus[5] (ou « Bolets beurrés », en raison de leur chair « jaune de beurre », ferme et mate) en 2014[6].
-Étymologie
-L'épithète spécifique regius « royal » est amplement méritée par ce majestueux Bolet, robuste et trapu, aux allures de Cèpe[7], son chapeau rouge rosé ou framboise, contrastant avec ses pores et son stipe réticulé jaune, procure un mémorable plaisir des yeux, renforcé par sa rareté. 
+Tubiporus regius (Krombh.) P. Karst., 1882</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bolet_royal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_royal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite pour la première fois par le mycologue allemand Krombholz en 1832 sous le binôme Boletus regius. Les progrès de la systématique font éclater l'ancien genre Boletus ss. lato et migrer toute la section Appendiculati vers le nouveau genre Butyriboletus (ou « Bolets beurrés », en raison de leur chair « jaune de beurre », ferme et mate) en 2014.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Bolet_royal</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bolet_royal</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique regius « royal » est amplement méritée par ce majestueux Bolet, robuste et trapu, aux allures de Cèpe, son chapeau rouge rosé ou framboise, contrastant avec ses pores et son stipe réticulé jaune, procure un mémorable plaisir des yeux, renforcé par sa rareté. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_royal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_royal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau 5~15 (20) cm, robuste, cabossé. Cuticule entièrement séparable à maturité, un peu lubrifiée puis sèche, feutrée à veloutée, presque méchuleuse, chagrinée, de couleur vive : typiquement d'un beau rouge rosé à framboise, décolorant à carmin pâle, groseille ou rouge bigarreau sur fond jaune visible par endroits. Comme toute la section Appendiculati, la marge est épaisse, incurvée, légèrement débordante, un peu ondulée.
 Hyménophore : tubes longs et étroits, adnés ; pores fins ;  pores et tubes jaune citrin vif, immuables. Sporée brun olive.
 Stipe: 5~10 (12) x 2~6 cm, épais et trapu, relativement court, cylindro-clavé, rarement obèse, jaune soufre pâle, parfois lavé de lilacin à la base; orné d'un long et fin réseau jaune sur fond jaune,
-Chair : épaisse, ferme, jaune citrin pâle, pratiquement immuable, souvent rose sous la cuticule et rouge vineux à la base du pied. Saveur douce ou un peu astringente. Odeur typique d 'écale de noix, de biscotte, rappelant la saveur des cèpes[8].
-Caractéristiques microscopiques
-Ses spores sont lisses, hyalines, elliptiques à subfusoïdes à plus ou moins cylindriques,12–17 x 4–5 μm.
+Chair : épaisse, ferme, jaune citrin pâle, pratiquement immuable, souvent rose sous la cuticule et rouge vineux à la base du pied. Saveur douce ou un peu astringente. Odeur typique d 'écale de noix, de biscotte, rappelant la saveur des cèpes.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Bolet_royal</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bolet_royal</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores sont lisses, hyalines, elliptiques à subfusoïdes à plus ou moins cylindriques,12–17 x 4–5 μm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bolet_royal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_royal</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (17 février 2024)[2] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (17 février 2024) :
 Butyriboletus regius f. aureus (Lambert &amp; Estades) Klofac, 2016, qui a le chapeau blanc crème jaunâtre.</t>
         </is>
       </c>
